--- a/biology/Médecine/Vertèbre_cervicale/Vertèbre_cervicale.xlsx
+++ b/biology/Médecine/Vertèbre_cervicale/Vertèbre_cervicale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vert%C3%A8bre_cervicale</t>
+          <t>Vertèbre_cervicale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vertèbres cervicales sont les vertèbres situées au niveau du cou. Elles appartiennent au rachis cervical.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vert%C3%A8bre_cervicale</t>
+          <t>Vertèbre_cervicale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,88 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez l'Homme, les vertèbres cervicales sont au nombre de sept, dont trois particulières : l'atlas (C1), l'axis (C2) et la septième vertèbre cervicale dite vertèbre proéminente (C7).
 Ce sont les plus petites vertèbres du rachis. 
 Les vertèbres cervicales C3, C4, C5 et C6 ont des structures similaires.
 Elles présentent la structure générale des vertèbres avec un corps vertébral et un arc vertébral entourant le foramen vertébral mais avec des caractères spécifiques.
-Atlas et Axis
-Les deux premières vertèbres cervicales sont de forme particulière et assurent la mobilité particulière de la tête.
-Vertèbres C3 - C6
-Le corps vertébral des vertèbres cervicales C3-C6 sont cubiques allongés transversalement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Vertèbre_cervicale</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vert%C3%A8bre_cervicale</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Atlas et Axis</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les deux premières vertèbres cervicales sont de forme particulière et assurent la mobilité particulière de la tête.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vertèbre_cervicale</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vert%C3%A8bre_cervicale</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vertèbres C3 - C6</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le corps vertébral des vertèbres cervicales C3-C6 sont cubiques allongés transversalement.
 Leur face supérieure est concave transversalement avec deux saillies latérales verticales : les uncus (ou apophyse semi-lunaire ou crochet ou apophyse unciforme)
 Leur face inférieure est concave d'avant en arrière et convexe transversalement. Latéralement deux échancrures reçoivent les uncus de la vertèbre sous-jacente.
 Les deux faces latérales reçoivent les racines antérieures des processus transverses. Leur bord antérieur se prolonge en bas formant un bec recouvrant la vertèbre sous-jacente. Leur bord postérieur se prolonge par les pédicules vertébraux. A l'arrière du pédicule s'attache la racine postérieure du processus transverse.
@@ -530,8 +614,43 @@
 À l'arrière des pédicules les lames vertébrales se dirigent en bas, en arrière et en dedans. Elles sont plus longues que hautes. Elles portent en arrière le processus épineux court et large portant une gouttière inférieure recevant le bord supérieur du processus épineux sous-jacent. Son sommet porte deux tubercules.
 À l'union des lames et des pédicules une colonne osseuse porte les processus articulaires supérieurs et inférieurs. La surface articulaire supérieure est orientée en arrière, en haut et légèrement en dehors. La surface articulaire inférieure est orientée en avant, en bas et légèrement en dedans.
 Le foramen vertébral est large et triangulaire à base antérieure.
-Vertèbre proéminente
-La septième vertèbre cervicale ou vertèbre proéminente est une vertèbre de transition entre les vertèbres cervicales et thoraciques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vertèbre_cervicale</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vert%C3%A8bre_cervicale</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vertèbre proéminente</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La septième vertèbre cervicale ou vertèbre proéminente est une vertèbre de transition entre les vertèbres cervicales et thoraciques.
 Son corps est plus volumineux que les autres vertèbres cervicales.
 De façon inconstante, elle peut présenter une surface articulaire latérale avec la première côte.
 Son processus épineux et ses processus transverses sont plus longs et n'ont qu'un tubercule.
@@ -540,31 +659,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Vert%C3%A8bre_cervicale</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Vertèbre_cervicale</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Vert%C3%A8bre_cervicale</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>La colonne cervicale permet l'articulation de la tête au thorax.
 Elles permet les mouvements :
@@ -574,65 +695,69 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Vert%C3%A8bre_cervicale</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Vertèbre_cervicale</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Vert%C3%A8bre_cervicale</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tubercule antérieur du processus transverse de la sixième vertèbre cervicale, plus proéminent que les autres, est un repère chirurgical important car il est au niveau du croisement des artères carotide commune, thyroïdienne inférieure et vertébrale. Il est nommé tubercule carotidien ou tubercule de Chassaignac[1].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tubercule antérieur du processus transverse de la sixième vertèbre cervicale, plus proéminent que les autres, est un repère chirurgical important car il est au niveau du croisement des artères carotide commune, thyroïdienne inférieure et vertébrale. Il est nommé tubercule carotidien ou tubercule de Chassaignac.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Vert%C3%A8bre_cervicale</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Vertèbre_cervicale</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Vert%C3%A8bre_cervicale</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Anatomie comparée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tout comme l'être humain, la plupart des mammifères, aussi bien la souris que la girafe ou le ragondin, possèdent sept vertèbres cervicales. Seuls font exception les lamantins (six) et les paresseux (paresseux didactyles : six aussi ; paresseux tridactyles : entre huit et dix)[3],[4].
-Chez les oiseaux, ce nombre est plus élevé — et variable : de 9 à 11 (perroquets) à 22 à 26 (cygne)[4] —, ce qui leur permet d'effectuer une rotation complète de la tête sur son axe. Le nombre de vertèbres cervicales du cygne est variable, entre 22 et 26, mais il est nettement plus important que le nombre de vertèbres cervicales des autres oiseaux, qui en ont entre 9 et 18 (oies)[5].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tout comme l'être humain, la plupart des mammifères, aussi bien la souris que la girafe ou le ragondin, possèdent sept vertèbres cervicales. Seuls font exception les lamantins (six) et les paresseux (paresseux didactyles : six aussi ; paresseux tridactyles : entre huit et dix),.
+Chez les oiseaux, ce nombre est plus élevé — et variable : de 9 à 11 (perroquets) à 22 à 26 (cygne) —, ce qui leur permet d'effectuer une rotation complète de la tête sur son axe. Le nombre de vertèbres cervicales du cygne est variable, entre 22 et 26, mais il est nettement plus important que le nombre de vertèbres cervicales des autres oiseaux, qui en ont entre 9 et 18 (oies).
 Les élasmosaures (des plésiosaures du Crétacé supérieur) possédaient 76 vertèbres cervicales.
 </t>
         </is>
